--- a/data/pca/factorExposure/factorExposure_2018-05-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-05-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.0149310634267249</v>
+        <v>0.01888890575050146</v>
       </c>
       <c r="C2">
-        <v>-0.03091295962566076</v>
+        <v>-0.01676103851061935</v>
       </c>
       <c r="D2">
-        <v>0.01210848117960632</v>
+        <v>0.02965398572614599</v>
       </c>
       <c r="E2">
-        <v>0.02152619832483069</v>
+        <v>-0.015705457432813</v>
       </c>
       <c r="F2">
-        <v>-0.1107596853717306</v>
+        <v>0.003837546966646212</v>
       </c>
       <c r="G2">
-        <v>-0.07235702535122056</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.04527179847425705</v>
+      </c>
+      <c r="H2">
+        <v>-0.04741277073332707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.09127500602300471</v>
+        <v>0.08145119675993885</v>
       </c>
       <c r="C3">
-        <v>-0.01540449257651299</v>
+        <v>0.0152974789659994</v>
       </c>
       <c r="D3">
-        <v>0.07455394311782257</v>
+        <v>0.05742090040334717</v>
       </c>
       <c r="E3">
-        <v>0.1040646544676307</v>
+        <v>-0.01398728892248367</v>
       </c>
       <c r="F3">
-        <v>-0.3998627910587305</v>
+        <v>-0.01755578818874264</v>
       </c>
       <c r="G3">
-        <v>-0.2313072508837171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1728542178595355</v>
+      </c>
+      <c r="H3">
+        <v>-0.1490844057854904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04184970008680739</v>
+        <v>0.04695342390713687</v>
       </c>
       <c r="C4">
-        <v>-0.006813537936527202</v>
+        <v>-0.001224031788517648</v>
       </c>
       <c r="D4">
-        <v>-0.006233021997009994</v>
+        <v>0.05664036844194065</v>
       </c>
       <c r="E4">
-        <v>-0.04210285897328807</v>
+        <v>0.01811406844922659</v>
       </c>
       <c r="F4">
-        <v>-0.08172899761373105</v>
+        <v>0.045623748034339</v>
       </c>
       <c r="G4">
-        <v>-0.04242315776942598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03959534005019982</v>
+      </c>
+      <c r="H4">
+        <v>-0.05792840165712971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.02886607772117574</v>
+        <v>0.02797641222557003</v>
       </c>
       <c r="C6">
-        <v>-0.0124151978001361</v>
+        <v>0.001637953330047749</v>
       </c>
       <c r="D6">
-        <v>0.003724415801271821</v>
+        <v>0.05898796255100194</v>
       </c>
       <c r="E6">
-        <v>-0.01979453211843604</v>
+        <v>0.004111799774635935</v>
       </c>
       <c r="F6">
-        <v>-0.01325435867598285</v>
+        <v>0.03078091078842552</v>
       </c>
       <c r="G6">
-        <v>0.0142965315392683</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01100964814754845</v>
+      </c>
+      <c r="H6">
+        <v>-0.06249739830259694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.01943176822330027</v>
+        <v>0.02249816015446618</v>
       </c>
       <c r="C7">
-        <v>-0.008406477247158645</v>
+        <v>-0.0006429620935027074</v>
       </c>
       <c r="D7">
-        <v>0.01356424551846572</v>
+        <v>0.02957191404439294</v>
       </c>
       <c r="E7">
-        <v>-0.02165110085216843</v>
+        <v>0.04168306932701239</v>
       </c>
       <c r="F7">
-        <v>-0.04985794535560484</v>
+        <v>0.0025858746646787</v>
       </c>
       <c r="G7">
-        <v>-0.06716153261080864</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.0240585662304229</v>
+      </c>
+      <c r="H7">
+        <v>-0.03831933591481462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01608781746799685</v>
+        <v>0.007229092603463825</v>
       </c>
       <c r="C8">
-        <v>-0.01662688069977553</v>
+        <v>0.002782626957513331</v>
       </c>
       <c r="D8">
-        <v>0.008079072712916179</v>
+        <v>0.01226371402580652</v>
       </c>
       <c r="E8">
-        <v>-0.02867646043594826</v>
+        <v>0.005969714581431962</v>
       </c>
       <c r="F8">
-        <v>-0.1028705396556566</v>
+        <v>0.01861599908917829</v>
       </c>
       <c r="G8">
-        <v>-0.05230187172523398</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.041039707782682</v>
+      </c>
+      <c r="H8">
+        <v>-0.0419546115003435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03317876715868456</v>
+        <v>0.0368895272517208</v>
       </c>
       <c r="C9">
-        <v>-0.01521195652986669</v>
+        <v>0.00141080192273024</v>
       </c>
       <c r="D9">
-        <v>0.002422800296022545</v>
+        <v>0.04130633183626004</v>
       </c>
       <c r="E9">
-        <v>-0.03046675519947914</v>
+        <v>0.006859661097013344</v>
       </c>
       <c r="F9">
-        <v>-0.0960337572376837</v>
+        <v>0.02248554818958232</v>
       </c>
       <c r="G9">
-        <v>-0.04481191733132893</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04644270237751696</v>
+      </c>
+      <c r="H9">
+        <v>-0.05644927599501436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03798075836060336</v>
+        <v>0.103862661382925</v>
       </c>
       <c r="C10">
-        <v>0.08007416775186901</v>
+        <v>-0.0002452189711056964</v>
       </c>
       <c r="D10">
-        <v>-0.06111815405556088</v>
+        <v>-0.1687643354345141</v>
       </c>
       <c r="E10">
-        <v>0.1272033545866221</v>
+        <v>-0.001917172951476655</v>
       </c>
       <c r="F10">
-        <v>-0.04611115720016806</v>
+        <v>-0.03610869852426071</v>
       </c>
       <c r="G10">
-        <v>-0.01432613909408361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02941650953057699</v>
+      </c>
+      <c r="H10">
+        <v>-0.002189904188643764</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03074472826807765</v>
+        <v>0.02324340599321098</v>
       </c>
       <c r="C11">
-        <v>-0.02942979198074513</v>
+        <v>0.01263347048482481</v>
       </c>
       <c r="D11">
-        <v>0.01037569492820917</v>
+        <v>0.04488958491914528</v>
       </c>
       <c r="E11">
-        <v>-0.02226625745014649</v>
+        <v>-0.001834280690550553</v>
       </c>
       <c r="F11">
-        <v>-0.05088463580135194</v>
+        <v>0.01257230411392684</v>
       </c>
       <c r="G11">
-        <v>-0.02087673073953061</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02737488438644111</v>
+      </c>
+      <c r="H11">
+        <v>-0.0496466347267146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03840681967567165</v>
+        <v>0.02777201331494163</v>
       </c>
       <c r="C12">
-        <v>-0.02787598262020439</v>
+        <v>0.009076541645139389</v>
       </c>
       <c r="D12">
-        <v>0.003820850395271466</v>
+        <v>0.04404072328060649</v>
       </c>
       <c r="E12">
-        <v>-0.03267711343614894</v>
+        <v>0.008250751692014143</v>
       </c>
       <c r="F12">
-        <v>-0.02823218275905965</v>
+        <v>0.01534422379802541</v>
       </c>
       <c r="G12">
-        <v>-0.01249922193976239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.008592625141919861</v>
+      </c>
+      <c r="H12">
+        <v>-0.02191386472531711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.0139906785783661</v>
+        <v>0.02904259604762487</v>
       </c>
       <c r="C13">
-        <v>-0.02480095807806093</v>
+        <v>-0.01249009065087946</v>
       </c>
       <c r="D13">
-        <v>-0.003206169613819914</v>
+        <v>0.0174829187152756</v>
       </c>
       <c r="E13">
-        <v>0.008798112388101105</v>
+        <v>-0.01355430660701122</v>
       </c>
       <c r="F13">
-        <v>-0.08473881064970885</v>
+        <v>0.02138590893937235</v>
       </c>
       <c r="G13">
-        <v>-0.04630828962244139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.06032523863777518</v>
+      </c>
+      <c r="H13">
+        <v>-0.07470126425536781</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01460087182878586</v>
+        <v>0.01915384922123152</v>
       </c>
       <c r="C14">
-        <v>-0.002433552107579107</v>
+        <v>-8.801281306757172e-05</v>
       </c>
       <c r="D14">
-        <v>-0.001088328450622482</v>
+        <v>0.01118561685126504</v>
       </c>
       <c r="E14">
-        <v>-0.02563501628490829</v>
+        <v>0.01240250661039071</v>
       </c>
       <c r="F14">
-        <v>-0.06411827241834635</v>
+        <v>0.01424195633084068</v>
       </c>
       <c r="G14">
-        <v>-0.05249621959535807</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03978303346384008</v>
+      </c>
+      <c r="H14">
+        <v>-0.01289878502986359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02728570604576129</v>
+        <v>0.02458757686941015</v>
       </c>
       <c r="C16">
-        <v>-0.03217250929314903</v>
+        <v>0.01196401365945962</v>
       </c>
       <c r="D16">
-        <v>0.005967686775131087</v>
+        <v>0.03710271797771422</v>
       </c>
       <c r="E16">
-        <v>-0.02019510338224211</v>
+        <v>0.001815180704778816</v>
       </c>
       <c r="F16">
-        <v>-0.05100819690612106</v>
+        <v>0.01608471152850467</v>
       </c>
       <c r="G16">
-        <v>-0.02022495634234829</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02333274982730294</v>
+      </c>
+      <c r="H16">
+        <v>-0.03747607501842426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03237233761297738</v>
+        <v>0.03206079262563052</v>
       </c>
       <c r="C19">
-        <v>-0.03138189620547052</v>
+        <v>0.001487587590228567</v>
       </c>
       <c r="D19">
-        <v>0.01352587427654633</v>
+        <v>0.0356446901848234</v>
       </c>
       <c r="E19">
-        <v>-0.01739867513244963</v>
+        <v>0.003434884271364661</v>
       </c>
       <c r="F19">
-        <v>-0.1019146056336032</v>
+        <v>0.0252203086271075</v>
       </c>
       <c r="G19">
-        <v>-0.05743842052473624</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.05537860884990212</v>
+      </c>
+      <c r="H19">
+        <v>-0.06179774968971164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002300632345483546</v>
+        <v>0.01177598557637438</v>
       </c>
       <c r="C20">
-        <v>-0.007266109692122636</v>
+        <v>-0.004123063348205107</v>
       </c>
       <c r="D20">
-        <v>-0.001186202465270898</v>
+        <v>0.01992370090299814</v>
       </c>
       <c r="E20">
-        <v>-0.01558633507648219</v>
+        <v>0.003598659456653829</v>
       </c>
       <c r="F20">
-        <v>-0.0776698188230323</v>
+        <v>0.01441541703304436</v>
       </c>
       <c r="G20">
-        <v>-0.0779616736215991</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.0519758029181249</v>
+      </c>
+      <c r="H20">
+        <v>-0.02735461008376146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001112585057146627</v>
+        <v>0.01751833813553198</v>
       </c>
       <c r="C21">
-        <v>0.01136550998102312</v>
+        <v>-0.005384103810149568</v>
       </c>
       <c r="D21">
-        <v>0.01991814536331696</v>
+        <v>0.0211156866660904</v>
       </c>
       <c r="E21">
-        <v>-0.03302847882875736</v>
+        <v>0.01758428483295461</v>
       </c>
       <c r="F21">
-        <v>-0.04535116655213318</v>
+        <v>0.01011314130658212</v>
       </c>
       <c r="G21">
-        <v>-0.009354319324598372</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04726649519213402</v>
+      </c>
+      <c r="H21">
+        <v>-0.04278539278195764</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02792859827032913</v>
+        <v>0.02009835900841852</v>
       </c>
       <c r="C24">
-        <v>-0.02723340044067045</v>
+        <v>0.006579611518710361</v>
       </c>
       <c r="D24">
-        <v>-0.0007779203868445485</v>
+        <v>0.04072176404372164</v>
       </c>
       <c r="E24">
-        <v>-0.007729014976878579</v>
+        <v>0.000200605513538051</v>
       </c>
       <c r="F24">
-        <v>-0.04466756607463865</v>
+        <v>0.0108503243770696</v>
       </c>
       <c r="G24">
-        <v>-0.01970479872300239</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01750626229490854</v>
+      </c>
+      <c r="H24">
+        <v>-0.04603336317737262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02834652195410665</v>
+        <v>0.03238050652677935</v>
       </c>
       <c r="C25">
-        <v>-0.02071483399822301</v>
+        <v>0.004507898156110093</v>
       </c>
       <c r="D25">
-        <v>0.01378768262908612</v>
+        <v>0.04129200080996952</v>
       </c>
       <c r="E25">
-        <v>-0.02262225915931042</v>
+        <v>0.005393691650765928</v>
       </c>
       <c r="F25">
-        <v>-0.05271127882838274</v>
+        <v>0.01870983210076865</v>
       </c>
       <c r="G25">
-        <v>-0.009939046304204653</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02159390833604717</v>
+      </c>
+      <c r="H25">
+        <v>-0.04272995963600604</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01886102476886884</v>
+        <v>0.01772093959401663</v>
       </c>
       <c r="C26">
-        <v>-0.01743549272850708</v>
+        <v>-0.01816584982196132</v>
       </c>
       <c r="D26">
-        <v>0.01874927846612998</v>
+        <v>0.007706538145285907</v>
       </c>
       <c r="E26">
-        <v>0.004812725195791507</v>
+        <v>-0.0002609050033417918</v>
       </c>
       <c r="F26">
-        <v>-0.06800338854154662</v>
+        <v>0.002020063474592601</v>
       </c>
       <c r="G26">
-        <v>-0.04439094160932578</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03015282179428181</v>
+      </c>
+      <c r="H26">
+        <v>-0.02410531247831572</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.05238616132235759</v>
+        <v>0.02082470011460347</v>
       </c>
       <c r="C27">
-        <v>-0.0211282550117297</v>
+        <v>0.007874091628193681</v>
       </c>
       <c r="D27">
-        <v>-0.02486466412529629</v>
+        <v>0.01353115329064774</v>
       </c>
       <c r="E27">
-        <v>-0.03133918040354661</v>
+        <v>0.002835061311113195</v>
       </c>
       <c r="F27">
-        <v>-0.04350918329060895</v>
+        <v>0.01146586417012791</v>
       </c>
       <c r="G27">
-        <v>-0.05076094038703698</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.009806665417240488</v>
+      </c>
+      <c r="H27">
+        <v>0.004438789056073054</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.06611672121387745</v>
+        <v>0.1539089200200419</v>
       </c>
       <c r="C28">
-        <v>0.1077815348539553</v>
+        <v>-0.009407279467640306</v>
       </c>
       <c r="D28">
-        <v>-0.08618114365687467</v>
+        <v>-0.2213281066786237</v>
       </c>
       <c r="E28">
-        <v>0.156526633489277</v>
+        <v>0.00644651252585548</v>
       </c>
       <c r="F28">
-        <v>-0.04520521417230687</v>
+        <v>-0.03052877453085109</v>
       </c>
       <c r="G28">
-        <v>-0.01224352695533917</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01635450538288905</v>
+      </c>
+      <c r="H28">
+        <v>0.007521356159465458</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0193159931314998</v>
+        <v>0.02399918522426995</v>
       </c>
       <c r="C29">
-        <v>-0.003646931054670631</v>
+        <v>0.001620630569337311</v>
       </c>
       <c r="D29">
-        <v>-0.002480846823405311</v>
+        <v>0.01134170910943687</v>
       </c>
       <c r="E29">
-        <v>-0.03356203825449106</v>
+        <v>0.0128670906757156</v>
       </c>
       <c r="F29">
-        <v>-0.06359924459725835</v>
+        <v>0.01613500468440352</v>
       </c>
       <c r="G29">
-        <v>-0.04074990802072834</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03892983766069175</v>
+      </c>
+      <c r="H29">
+        <v>-0.004637887004413793</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.07922171960680412</v>
+        <v>0.05342699911241621</v>
       </c>
       <c r="C30">
-        <v>-0.06020172168610176</v>
+        <v>0.002228960102288184</v>
       </c>
       <c r="D30">
-        <v>-0.006934969449472862</v>
+        <v>0.08841072998134986</v>
       </c>
       <c r="E30">
-        <v>-0.04642684230569154</v>
+        <v>-0.03273163171311107</v>
       </c>
       <c r="F30">
-        <v>-0.108306000464837</v>
+        <v>0.04789554787353213</v>
       </c>
       <c r="G30">
-        <v>-0.06099183425456001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.05981392821963341</v>
+      </c>
+      <c r="H30">
+        <v>-0.07860967336396477</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05825914330752666</v>
+        <v>0.05029729085307165</v>
       </c>
       <c r="C31">
-        <v>-0.03295523347609028</v>
+        <v>0.01135974564923818</v>
       </c>
       <c r="D31">
-        <v>0.004545659891289578</v>
+        <v>0.02281254371027785</v>
       </c>
       <c r="E31">
-        <v>-0.00504172316237647</v>
+        <v>-0.004856484322031889</v>
       </c>
       <c r="F31">
-        <v>-0.0509578436507921</v>
+        <v>0.003893756093211949</v>
       </c>
       <c r="G31">
-        <v>-0.05252102220128111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.0189452913806416</v>
+      </c>
+      <c r="H31">
+        <v>-0.002173535737008059</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01662964636461156</v>
+        <v>0.01082322798676423</v>
       </c>
       <c r="C32">
-        <v>-0.01535043949908199</v>
+        <v>0.0137753024720973</v>
       </c>
       <c r="D32">
-        <v>0.008291817177464977</v>
+        <v>0.0107355138220512</v>
       </c>
       <c r="E32">
-        <v>-0.06151176596870211</v>
+        <v>0.02928537105481705</v>
       </c>
       <c r="F32">
-        <v>-0.07892986601507278</v>
+        <v>0.03907053826201272</v>
       </c>
       <c r="G32">
-        <v>-0.04071396600973548</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.03102827340437986</v>
+      </c>
+      <c r="H32">
+        <v>-0.05754490779891189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04181983752750299</v>
+        <v>0.03552331276338497</v>
       </c>
       <c r="C33">
-        <v>-0.03982672049433465</v>
+        <v>0.002037533694029048</v>
       </c>
       <c r="D33">
-        <v>0.03370984807150774</v>
+        <v>0.0372646306094278</v>
       </c>
       <c r="E33">
-        <v>-0.01693812568301699</v>
+        <v>-0.02217128025510921</v>
       </c>
       <c r="F33">
-        <v>-0.08373939667739977</v>
+        <v>-0.0009265273780154705</v>
       </c>
       <c r="G33">
-        <v>-0.05575895920061537</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.04546824758300774</v>
+      </c>
+      <c r="H33">
+        <v>-0.04879349300897467</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02680104558987583</v>
+        <v>0.03007411417968357</v>
       </c>
       <c r="C34">
-        <v>-0.02580406377267712</v>
+        <v>0.02026150326618777</v>
       </c>
       <c r="D34">
-        <v>0.006278656337804553</v>
+        <v>0.03751473139253682</v>
       </c>
       <c r="E34">
-        <v>-0.0261831381147788</v>
+        <v>0.01171872079380461</v>
       </c>
       <c r="F34">
-        <v>-0.0574634825921219</v>
+        <v>0.01808425645192273</v>
       </c>
       <c r="G34">
-        <v>-0.01691063916746586</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01407921803720524</v>
+      </c>
+      <c r="H34">
+        <v>-0.03657285107845053</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01444624907231319</v>
+        <v>0.01850329865414158</v>
       </c>
       <c r="C36">
-        <v>-0.002780898195273838</v>
+        <v>-0.005844614694696996</v>
       </c>
       <c r="D36">
-        <v>0.004366888760181174</v>
+        <v>0.003553201624286851</v>
       </c>
       <c r="E36">
-        <v>-0.02039881897158899</v>
+        <v>0.00738123342302453</v>
       </c>
       <c r="F36">
-        <v>-0.04021700786212027</v>
+        <v>0.002371891616889507</v>
       </c>
       <c r="G36">
-        <v>-0.03147574695492784</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.0213881945910208</v>
+      </c>
+      <c r="H36">
+        <v>-0.01596539026037458</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.002631401295167547</v>
+        <v>0.02665061660916165</v>
       </c>
       <c r="C38">
-        <v>0.004491825744538728</v>
+        <v>0.01657480030097118</v>
       </c>
       <c r="D38">
-        <v>0.01803154906688765</v>
+        <v>0.01192433180333626</v>
       </c>
       <c r="E38">
-        <v>0.03007632854942523</v>
+        <v>-0.0005465960577693382</v>
       </c>
       <c r="F38">
-        <v>-0.03663412722241745</v>
+        <v>0.009182575785975367</v>
       </c>
       <c r="G38">
-        <v>-0.01060284193965202</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02337454838375227</v>
+      </c>
+      <c r="H38">
+        <v>-0.04497353054988511</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.0283034289189236</v>
+        <v>0.01924872270705446</v>
       </c>
       <c r="C39">
-        <v>-0.0480720307081671</v>
+        <v>0.01004746442784665</v>
       </c>
       <c r="D39">
-        <v>0.01331715021353706</v>
+        <v>0.08585116128598345</v>
       </c>
       <c r="E39">
-        <v>-0.0232084389202429</v>
+        <v>-0.007520976285452057</v>
       </c>
       <c r="F39">
-        <v>-0.06561600082603358</v>
+        <v>0.0178156525922826</v>
       </c>
       <c r="G39">
-        <v>-0.02845227508542541</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.0405170446643956</v>
+      </c>
+      <c r="H39">
+        <v>-0.07833243819060462</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03196932872092636</v>
+        <v>0.03115134006163695</v>
       </c>
       <c r="C40">
-        <v>-0.07359266860090992</v>
+        <v>0.002506032357456894</v>
       </c>
       <c r="D40">
-        <v>-0.01740626252853831</v>
+        <v>0.03054124850958063</v>
       </c>
       <c r="E40">
-        <v>0.01223797140488386</v>
+        <v>-0.02568698437279728</v>
       </c>
       <c r="F40">
-        <v>-0.08160331590871689</v>
+        <v>0.03396853114924143</v>
       </c>
       <c r="G40">
-        <v>-0.04898081038908655</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02157718149826251</v>
+      </c>
+      <c r="H40">
+        <v>-0.06538422634402864</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.001840736546820017</v>
+        <v>0.01148242778125717</v>
       </c>
       <c r="C41">
-        <v>0.0007252016115333192</v>
+        <v>-0.003307345363364373</v>
       </c>
       <c r="D41">
-        <v>0.01036205891382677</v>
+        <v>-0.01516144021524365</v>
       </c>
       <c r="E41">
-        <v>-0.0003630487584487539</v>
+        <v>-0.0005171399050643293</v>
       </c>
       <c r="F41">
-        <v>-0.01561678002065467</v>
+        <v>-0.003996994025852788</v>
       </c>
       <c r="G41">
-        <v>-0.05201645234610843</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.0009252724348855003</v>
+      </c>
+      <c r="H41">
+        <v>0.005837259870894176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3500088302389538</v>
+        <v>0.1685720583142823</v>
       </c>
       <c r="C42">
-        <v>0.09157139690344962</v>
+        <v>-0.06230569149693625</v>
       </c>
       <c r="D42">
-        <v>0.7727799804650751</v>
+        <v>0.2408033452366335</v>
       </c>
       <c r="E42">
-        <v>0.3305296464433968</v>
+        <v>-0.2097470067267136</v>
       </c>
       <c r="F42">
-        <v>0.3159253402179582</v>
+        <v>-0.8980591015914117</v>
       </c>
       <c r="G42">
-        <v>-0.1614943402100004</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.1980735960814694</v>
+      </c>
+      <c r="H42">
+        <v>-0.007276816864682952</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.0004739323779369663</v>
+        <v>0.01429759939782202</v>
       </c>
       <c r="C43">
-        <v>0.0004914487243346741</v>
+        <v>-0.003266698218337515</v>
       </c>
       <c r="D43">
-        <v>0.01267537954009303</v>
+        <v>-0.01333759073162945</v>
       </c>
       <c r="E43">
-        <v>-0.001141719133819078</v>
+        <v>-0.003585642746890412</v>
       </c>
       <c r="F43">
-        <v>-0.0359213179018315</v>
+        <v>-0.004798256192646206</v>
       </c>
       <c r="G43">
-        <v>-0.04764011346313472</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.002427264807204892</v>
+      </c>
+      <c r="H43">
+        <v>-0.008180246021848039</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01720643642698974</v>
+        <v>0.02071222942774095</v>
       </c>
       <c r="C44">
-        <v>-0.005118061917703766</v>
+        <v>0.006453206388704132</v>
       </c>
       <c r="D44">
-        <v>0.01188803432617858</v>
+        <v>0.03269078519357446</v>
       </c>
       <c r="E44">
-        <v>0.0086232830004593</v>
+        <v>0.005983677337320338</v>
       </c>
       <c r="F44">
-        <v>-0.1103810867735701</v>
+        <v>0.001262825375657229</v>
       </c>
       <c r="G44">
-        <v>-0.08457026278998012</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04102115957797376</v>
+      </c>
+      <c r="H44">
+        <v>-0.06473266256516064</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01967324577456448</v>
+        <v>0.01626182985441385</v>
       </c>
       <c r="C46">
-        <v>-0.02311423160007991</v>
+        <v>-0.00430822908706065</v>
       </c>
       <c r="D46">
-        <v>0.01697681211893163</v>
+        <v>0.01313810780224685</v>
       </c>
       <c r="E46">
-        <v>-0.03281468214049719</v>
+        <v>-0.001575174992290483</v>
       </c>
       <c r="F46">
-        <v>-0.07851728536471132</v>
+        <v>0.01136953732290479</v>
       </c>
       <c r="G46">
-        <v>-0.05660121085337153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.04471854784912546</v>
+      </c>
+      <c r="H46">
+        <v>-0.007534042427163074</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.0907110414033671</v>
+        <v>0.07401542656403366</v>
       </c>
       <c r="C47">
-        <v>-0.03610358501800737</v>
+        <v>0.0288647925431347</v>
       </c>
       <c r="D47">
-        <v>-0.006819802091472078</v>
+        <v>0.04707745402135461</v>
       </c>
       <c r="E47">
-        <v>-0.02493865668124554</v>
+        <v>0.001625611893850247</v>
       </c>
       <c r="F47">
-        <v>-0.04144750378124778</v>
+        <v>0.01470730437020385</v>
       </c>
       <c r="G47">
-        <v>-0.08351196594062824</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.008396039525962119</v>
+      </c>
+      <c r="H47">
+        <v>0.02362689315728103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01809889303644878</v>
+        <v>0.02129202003392686</v>
       </c>
       <c r="C48">
-        <v>-0.01151371771585986</v>
+        <v>0.005762186707476425</v>
       </c>
       <c r="D48">
-        <v>0.009330640917212574</v>
+        <v>0.01035515240610421</v>
       </c>
       <c r="E48">
-        <v>-0.01867950250117767</v>
+        <v>-2.617946897228528e-05</v>
       </c>
       <c r="F48">
-        <v>-0.04278910411187863</v>
+        <v>0.007033509519570395</v>
       </c>
       <c r="G48">
-        <v>-0.02347584219200078</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02292203998517007</v>
+      </c>
+      <c r="H48">
+        <v>-0.01784442611024964</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08578622054101752</v>
+        <v>0.07182369580455075</v>
       </c>
       <c r="C50">
-        <v>-0.03393808056715767</v>
+        <v>0.02588394117712483</v>
       </c>
       <c r="D50">
-        <v>0.01456791086694104</v>
+        <v>0.04623787893495469</v>
       </c>
       <c r="E50">
-        <v>-0.02764528459103504</v>
+        <v>0.01442232902295467</v>
       </c>
       <c r="F50">
-        <v>-0.04613860527275242</v>
+        <v>0.006533804813618986</v>
       </c>
       <c r="G50">
-        <v>-0.03560610412639684</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.006347531641765218</v>
+      </c>
+      <c r="H50">
+        <v>0.006140918848209874</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01600769467325977</v>
+        <v>0.02156448285089826</v>
       </c>
       <c r="C51">
-        <v>0.004685926063012408</v>
+        <v>-0.0005140272906324903</v>
       </c>
       <c r="D51">
-        <v>-0.001974813816240108</v>
+        <v>0.005179006376708157</v>
       </c>
       <c r="E51">
-        <v>0.01946572201579572</v>
+        <v>0.005750799193157485</v>
       </c>
       <c r="F51">
-        <v>-0.0968195286001136</v>
+        <v>0.003011258792270537</v>
       </c>
       <c r="G51">
-        <v>-0.06609416402554742</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.03701786844360176</v>
+      </c>
+      <c r="H51">
+        <v>-0.04922730153215795</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09896969297130775</v>
+        <v>0.08894908523374555</v>
       </c>
       <c r="C53">
-        <v>-0.04452781338746371</v>
+        <v>0.03735625586463525</v>
       </c>
       <c r="D53">
-        <v>-0.003923205656392202</v>
+        <v>0.08328431484842638</v>
       </c>
       <c r="E53">
-        <v>-0.04713842806227509</v>
+        <v>0.003977915062562613</v>
       </c>
       <c r="F53">
-        <v>0.02444947977863297</v>
+        <v>0.02935279547993264</v>
       </c>
       <c r="G53">
-        <v>-0.0204737792510831</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.03746749111258694</v>
+      </c>
+      <c r="H53">
+        <v>0.0356649953743813</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01577763610700398</v>
+        <v>0.02853793428692471</v>
       </c>
       <c r="C54">
-        <v>-0.000400304157391774</v>
+        <v>0.008107502780102568</v>
       </c>
       <c r="D54">
-        <v>-0.001681041672958371</v>
+        <v>-0.01327740919953358</v>
       </c>
       <c r="E54">
-        <v>-0.02997338286474229</v>
+        <v>0.006022089198283084</v>
       </c>
       <c r="F54">
-        <v>-0.05474941850511725</v>
+        <v>0.006508924863218711</v>
       </c>
       <c r="G54">
-        <v>-0.04753769948509967</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03784279360750328</v>
+      </c>
+      <c r="H54">
+        <v>-0.001149096182183606</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09965977705830786</v>
+        <v>0.07507680460720979</v>
       </c>
       <c r="C55">
-        <v>-0.02563513043654944</v>
+        <v>0.0336520536062475</v>
       </c>
       <c r="D55">
-        <v>0.0006055499833909651</v>
+        <v>0.07775719281579131</v>
       </c>
       <c r="E55">
-        <v>-0.06483322966042196</v>
+        <v>0.0128570210677886</v>
       </c>
       <c r="F55">
-        <v>0.01367232997268428</v>
+        <v>0.02069118519857941</v>
       </c>
       <c r="G55">
-        <v>-0.04989906294972997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01518936353969772</v>
+      </c>
+      <c r="H55">
+        <v>0.04521149006944106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1416697457270513</v>
+        <v>0.1229597450389219</v>
       </c>
       <c r="C56">
-        <v>-0.06021017913333332</v>
+        <v>0.05549734501054198</v>
       </c>
       <c r="D56">
-        <v>-0.04524742074573791</v>
+        <v>0.101361774667267</v>
       </c>
       <c r="E56">
-        <v>-0.071980401206805</v>
+        <v>0.00606979709982096</v>
       </c>
       <c r="F56">
-        <v>0.05900926101470196</v>
+        <v>0.05299243223236541</v>
       </c>
       <c r="G56">
-        <v>0.02327830482773472</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.07140826517416324</v>
+      </c>
+      <c r="H56">
+        <v>0.06074881779821772</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04408870851605366</v>
+        <v>0.03738237908065986</v>
       </c>
       <c r="C57">
-        <v>-0.01971460290247827</v>
+        <v>-0.01092204049674587</v>
       </c>
       <c r="D57">
-        <v>0.012965076475303</v>
+        <v>0.03199219288071802</v>
       </c>
       <c r="E57">
-        <v>0.01731656253759725</v>
+        <v>-0.01163868201328482</v>
       </c>
       <c r="F57">
-        <v>-0.0537981512000301</v>
+        <v>0.007296333048283934</v>
       </c>
       <c r="G57">
-        <v>-0.04203482023783685</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.07259369778777683</v>
+      </c>
+      <c r="H57">
+        <v>-0.04928823356033425</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2115433748610566</v>
+        <v>0.1388575379648776</v>
       </c>
       <c r="C58">
-        <v>-0.1470552205589507</v>
+        <v>0.0479328571704488</v>
       </c>
       <c r="D58">
-        <v>0.08914540749790227</v>
+        <v>0.1515380331800261</v>
       </c>
       <c r="E58">
-        <v>-0.05909751632635356</v>
+        <v>-0.2210687524987233</v>
       </c>
       <c r="F58">
-        <v>-0.4097308556608776</v>
+        <v>-0.07348356457597631</v>
       </c>
       <c r="G58">
-        <v>0.002475965841396047</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.813505599403289</v>
+      </c>
+      <c r="H58">
+        <v>0.3887784133513824</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05755692852455292</v>
+        <v>0.1653080929907371</v>
       </c>
       <c r="C59">
-        <v>0.05919891804639146</v>
+        <v>-0.0007162439993118109</v>
       </c>
       <c r="D59">
-        <v>-0.1012100660248296</v>
+        <v>-0.2190550046853883</v>
       </c>
       <c r="E59">
-        <v>0.1525270430413579</v>
+        <v>-0.01235560139910584</v>
       </c>
       <c r="F59">
-        <v>-0.05932997393237244</v>
+        <v>-0.003414307865314082</v>
       </c>
       <c r="G59">
-        <v>0.02259683537685228</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.01851236229372321</v>
+      </c>
+      <c r="H59">
+        <v>-0.02702137995151615</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1503173685050824</v>
+        <v>0.1910007977275719</v>
       </c>
       <c r="C60">
-        <v>-0.09289515869431955</v>
+        <v>0.0281608253998486</v>
       </c>
       <c r="D60">
-        <v>0.01933284061436625</v>
+        <v>0.02407546428654479</v>
       </c>
       <c r="E60">
-        <v>0.1144205376221316</v>
+        <v>-0.05230156520788713</v>
       </c>
       <c r="F60">
-        <v>-0.1543272915775183</v>
+        <v>0.05679574196531795</v>
       </c>
       <c r="G60">
-        <v>0.3169949049215472</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.02703554795498036</v>
+      </c>
+      <c r="H60">
+        <v>-0.3724602275622659</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02094721485298384</v>
+        <v>0.02393411681999476</v>
       </c>
       <c r="C61">
-        <v>-0.02755674827551438</v>
+        <v>0.01194975950879036</v>
       </c>
       <c r="D61">
-        <v>0.01149683746336</v>
+        <v>0.05274513617876399</v>
       </c>
       <c r="E61">
-        <v>-0.02048423802095165</v>
+        <v>0.001463030095318395</v>
       </c>
       <c r="F61">
-        <v>-0.03417848851802623</v>
+        <v>0.02158183315739902</v>
       </c>
       <c r="G61">
-        <v>-0.01121025189648281</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02554026152177585</v>
+      </c>
+      <c r="H61">
+        <v>-0.05852697580298359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.009114899249478368</v>
+        <v>0.0129580358030437</v>
       </c>
       <c r="C63">
-        <v>-0.01833723609368056</v>
+        <v>-0.000835645319720186</v>
       </c>
       <c r="D63">
-        <v>0.01919511891213053</v>
+        <v>0.02169288700629006</v>
       </c>
       <c r="E63">
-        <v>-0.02403000159614346</v>
+        <v>0.004488818832521886</v>
       </c>
       <c r="F63">
-        <v>-0.01589523810797364</v>
+        <v>0.01010743732719576</v>
       </c>
       <c r="G63">
-        <v>-0.07289749397787675</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01678227847707005</v>
+      </c>
+      <c r="H63">
+        <v>-0.01245548970782604</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03714000579677859</v>
+        <v>0.04141700363871741</v>
       </c>
       <c r="C64">
-        <v>-0.001974277874019271</v>
+        <v>0.01131421871141986</v>
       </c>
       <c r="D64">
-        <v>-0.002053350368860648</v>
+        <v>0.03763051056880089</v>
       </c>
       <c r="E64">
-        <v>-0.05254838805028141</v>
+        <v>0.01111704728052165</v>
       </c>
       <c r="F64">
-        <v>-0.04690972224216449</v>
+        <v>0.004775710364347877</v>
       </c>
       <c r="G64">
-        <v>-0.05433671464886982</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.005672945664261932</v>
+      </c>
+      <c r="H64">
+        <v>-0.04172875753876608</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03222222019755782</v>
+        <v>0.03956366473506841</v>
       </c>
       <c r="C65">
-        <v>-0.01423694725531272</v>
+        <v>0.00442260956287367</v>
       </c>
       <c r="D65">
-        <v>0.003635459808213515</v>
+        <v>0.07118326733642961</v>
       </c>
       <c r="E65">
-        <v>-0.022226907853909</v>
+        <v>0.007649600525977317</v>
       </c>
       <c r="F65">
-        <v>-0.008343752078619872</v>
+        <v>0.03928380400906226</v>
       </c>
       <c r="G65">
-        <v>0.02047795465334937</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.003403486376888574</v>
+      </c>
+      <c r="H65">
+        <v>-0.07422390825834542</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03270887629406023</v>
+        <v>0.02878336836084549</v>
       </c>
       <c r="C66">
-        <v>-0.06176248916416811</v>
+        <v>0.01789362402330415</v>
       </c>
       <c r="D66">
-        <v>0.01034986388882674</v>
+        <v>0.1061009384155827</v>
       </c>
       <c r="E66">
-        <v>-0.03657356648728203</v>
+        <v>-0.009766089375271247</v>
       </c>
       <c r="F66">
-        <v>-0.05173064704604297</v>
+        <v>0.03949704664141842</v>
       </c>
       <c r="G66">
-        <v>-0.01019321646444327</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.03796290526774387</v>
+      </c>
+      <c r="H66">
+        <v>-0.08330751422894754</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.0111825510611901</v>
+        <v>0.04695025497944329</v>
       </c>
       <c r="C67">
-        <v>-0.001486151028350319</v>
+        <v>0.0183797683832051</v>
       </c>
       <c r="D67">
-        <v>0.008830337550139251</v>
+        <v>0.01186945314407572</v>
       </c>
       <c r="E67">
-        <v>0.03369036110443328</v>
+        <v>-0.003336812726835442</v>
       </c>
       <c r="F67">
-        <v>-0.0195773881656128</v>
+        <v>0.01932262136167983</v>
       </c>
       <c r="G67">
-        <v>-0.002026398993354802</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.0124691048407754</v>
+      </c>
+      <c r="H67">
+        <v>-0.04565003038374434</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.07476274301471827</v>
+        <v>0.160040012817387</v>
       </c>
       <c r="C68">
-        <v>0.08582699174056831</v>
+        <v>-0.02497032160360705</v>
       </c>
       <c r="D68">
-        <v>-0.1128951553465829</v>
+        <v>-0.2359123352958558</v>
       </c>
       <c r="E68">
-        <v>0.1521855518269618</v>
+        <v>-0.008113587543472203</v>
       </c>
       <c r="F68">
-        <v>-0.05186092731103772</v>
+        <v>-0.03995745109922195</v>
       </c>
       <c r="G68">
-        <v>0.06081092241441919</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.0257822924637221</v>
+      </c>
+      <c r="H68">
+        <v>0.04933385194666364</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06489266657810142</v>
+        <v>0.06200084637068625</v>
       </c>
       <c r="C69">
-        <v>-0.04453230733348459</v>
+        <v>0.02955136543997084</v>
       </c>
       <c r="D69">
-        <v>-0.01633738030207627</v>
+        <v>0.04388084170374887</v>
       </c>
       <c r="E69">
-        <v>-0.01400907929797327</v>
+        <v>0.0007423782348770579</v>
       </c>
       <c r="F69">
-        <v>-0.02832155606247989</v>
+        <v>0.0275488468195804</v>
       </c>
       <c r="G69">
-        <v>-0.07507783221729335</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01204660472039556</v>
+      </c>
+      <c r="H69">
+        <v>-0.0063797280882203</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07882180336975486</v>
+        <v>0.1494617114880274</v>
       </c>
       <c r="C71">
-        <v>0.08619136808636715</v>
+        <v>-0.01155948169794487</v>
       </c>
       <c r="D71">
-        <v>-0.09176889938824744</v>
+        <v>-0.1964988277852648</v>
       </c>
       <c r="E71">
-        <v>0.2065040513091328</v>
+        <v>-0.01552654192958235</v>
       </c>
       <c r="F71">
-        <v>-0.03997602701689835</v>
+        <v>-0.04811395423918052</v>
       </c>
       <c r="G71">
-        <v>-0.0160932060113657</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.02927179086887478</v>
+      </c>
+      <c r="H71">
+        <v>0.02291277670888893</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1105712222601428</v>
+        <v>0.07884340409119593</v>
       </c>
       <c r="C72">
-        <v>-0.07636712664073464</v>
+        <v>0.04021035198776544</v>
       </c>
       <c r="D72">
-        <v>-0.03217606441929838</v>
+        <v>0.07579617221806494</v>
       </c>
       <c r="E72">
-        <v>-0.02689949673028417</v>
+        <v>-0.01701718898562194</v>
       </c>
       <c r="F72">
-        <v>-0.07217517259305696</v>
+        <v>0.06634254931510504</v>
       </c>
       <c r="G72">
-        <v>0.1094230931886668</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.02345813796057256</v>
+      </c>
+      <c r="H72">
+        <v>-0.1329538734631077</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2144285198850788</v>
+        <v>0.2570105639705286</v>
       </c>
       <c r="C73">
-        <v>-0.1252617141856925</v>
+        <v>0.04288643931404577</v>
       </c>
       <c r="D73">
-        <v>0.02651744607049234</v>
+        <v>0.08618547024770838</v>
       </c>
       <c r="E73">
-        <v>0.2068673264474679</v>
+        <v>-0.09250289904266847</v>
       </c>
       <c r="F73">
-        <v>-0.1816641797656458</v>
+        <v>0.06461388915409605</v>
       </c>
       <c r="G73">
-        <v>0.4619370072111095</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.04396538204353526</v>
+      </c>
+      <c r="H73">
+        <v>-0.4818999825070073</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1350205111647318</v>
+        <v>0.118733345920105</v>
       </c>
       <c r="C74">
-        <v>-0.03433527515057564</v>
+        <v>0.05446091639426242</v>
       </c>
       <c r="D74">
-        <v>-0.01301366930701971</v>
+        <v>0.106400220434269</v>
       </c>
       <c r="E74">
-        <v>-0.0531232345837374</v>
+        <v>0.008597189481043013</v>
       </c>
       <c r="F74">
-        <v>0.07391705541886454</v>
+        <v>0.03634812468116233</v>
       </c>
       <c r="G74">
-        <v>-0.009223065964738923</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.05862173037964553</v>
+      </c>
+      <c r="H74">
+        <v>0.02729640222592073</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2260061338313298</v>
+        <v>0.2288359693719636</v>
       </c>
       <c r="C75">
-        <v>-0.09958409670853959</v>
+        <v>0.1009162526328553</v>
       </c>
       <c r="D75">
-        <v>-0.0897935937943509</v>
+        <v>0.162313011631747</v>
       </c>
       <c r="E75">
-        <v>-0.1013018853571259</v>
+        <v>-0.009803068664020602</v>
       </c>
       <c r="F75">
-        <v>0.08688629113835827</v>
+        <v>0.09938163019527585</v>
       </c>
       <c r="G75">
-        <v>-0.02065810315803944</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1192301857839141</v>
+      </c>
+      <c r="H75">
+        <v>0.1352039937243193</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2763929944472526</v>
+        <v>0.1943215466502614</v>
       </c>
       <c r="C76">
-        <v>-0.09788757971694301</v>
+        <v>0.09351233306008215</v>
       </c>
       <c r="D76">
-        <v>-0.1241920764959299</v>
+        <v>0.1585569843464281</v>
       </c>
       <c r="E76">
-        <v>-0.1574842905509281</v>
+        <v>0.03765920389681703</v>
       </c>
       <c r="F76">
-        <v>0.1603788292154764</v>
+        <v>0.09450290013080453</v>
       </c>
       <c r="G76">
-        <v>0.008674082720675807</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1149536051106771</v>
+      </c>
+      <c r="H76">
+        <v>0.1343242237033619</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1302558375699857</v>
+        <v>0.07110945242666687</v>
       </c>
       <c r="C77">
-        <v>-0.06764239666302682</v>
+        <v>0.01467395374500239</v>
       </c>
       <c r="D77">
-        <v>0.08282983868034952</v>
+        <v>0.07661815604762888</v>
       </c>
       <c r="E77">
-        <v>-0.03457930784731295</v>
+        <v>-0.01624179772632865</v>
       </c>
       <c r="F77">
-        <v>-0.186913182972546</v>
+        <v>-0.01500261349895747</v>
       </c>
       <c r="G77">
-        <v>-0.2363704784714936</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.08205762858299702</v>
+      </c>
+      <c r="H77">
+        <v>-0.01319897837314856</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.07382689120620736</v>
+        <v>0.0403302812347563</v>
       </c>
       <c r="C78">
-        <v>-0.05534244596703983</v>
+        <v>0.01539118520970374</v>
       </c>
       <c r="D78">
-        <v>0.04139848843218175</v>
+        <v>0.06578575662765879</v>
       </c>
       <c r="E78">
-        <v>-0.06798864657063008</v>
+        <v>0.0003868242716735825</v>
       </c>
       <c r="F78">
-        <v>-0.1153004267903788</v>
+        <v>0.02115035569463139</v>
       </c>
       <c r="G78">
-        <v>-0.03065773114041547</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.06514080386717944</v>
+      </c>
+      <c r="H78">
+        <v>-0.08493338704677716</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2641378696637268</v>
+        <v>0.1414909881432685</v>
       </c>
       <c r="C80">
-        <v>0.8268743022522778</v>
+        <v>0.03670670988463607</v>
       </c>
       <c r="D80">
-        <v>0.05396999934335629</v>
+        <v>0.07657600174222658</v>
       </c>
       <c r="E80">
-        <v>-0.4220153424390345</v>
+        <v>0.9335710179901053</v>
       </c>
       <c r="F80">
-        <v>-0.1286666369766858</v>
+        <v>-0.2158009473030209</v>
       </c>
       <c r="G80">
-        <v>0.140401672170043</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.1648882989751173</v>
+      </c>
+      <c r="H80">
+        <v>-0.004930702585347091</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1770200847707348</v>
+        <v>0.154372426007729</v>
       </c>
       <c r="C81">
-        <v>-0.07010562014755521</v>
+        <v>0.06634000417053633</v>
       </c>
       <c r="D81">
-        <v>-0.0888825789385074</v>
+        <v>0.1034897429795619</v>
       </c>
       <c r="E81">
-        <v>-0.08901048740907846</v>
+        <v>0.009991489903533844</v>
       </c>
       <c r="F81">
-        <v>0.1019818148810571</v>
+        <v>0.06764101366513467</v>
       </c>
       <c r="G81">
-        <v>0.01178452160556975</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.08048843856050103</v>
+      </c>
+      <c r="H81">
+        <v>0.08960275147672735</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03405447110099125</v>
+        <v>0.03294716933964689</v>
       </c>
       <c r="C83">
-        <v>-0.03230941305009349</v>
+        <v>0.006619930864542983</v>
       </c>
       <c r="D83">
-        <v>0.01856042775865133</v>
+        <v>0.02433001316487606</v>
       </c>
       <c r="E83">
-        <v>0.005154416261991028</v>
+        <v>-0.008617990558366389</v>
       </c>
       <c r="F83">
-        <v>-0.06371882013526857</v>
+        <v>0.01008341572948164</v>
       </c>
       <c r="G83">
-        <v>-0.04136926098619583</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04778441697976803</v>
+      </c>
+      <c r="H83">
+        <v>-0.04080488107008947</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2581044713610388</v>
+        <v>0.2142877911294485</v>
       </c>
       <c r="C85">
-        <v>-0.09883589413793077</v>
+        <v>0.08544128707127874</v>
       </c>
       <c r="D85">
-        <v>-0.09531628352128509</v>
+        <v>0.1690843738347446</v>
       </c>
       <c r="E85">
-        <v>-0.1154808424882564</v>
+        <v>-0.003538854360277001</v>
       </c>
       <c r="F85">
-        <v>0.1100432095129587</v>
+        <v>0.08436558578179328</v>
       </c>
       <c r="G85">
-        <v>-0.02512845543372799</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1307302684260162</v>
+      </c>
+      <c r="H85">
+        <v>0.09508241534137422</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.005470120833123764</v>
+        <v>0.02699952790833896</v>
       </c>
       <c r="C86">
-        <v>-0.001658091936165127</v>
+        <v>0.004678275246674917</v>
       </c>
       <c r="D86">
-        <v>0.02795331380365559</v>
+        <v>0.03407914497171661</v>
       </c>
       <c r="E86">
-        <v>-0.02841277749096818</v>
+        <v>-0.0003582063447931279</v>
       </c>
       <c r="F86">
-        <v>-0.0821705827201212</v>
+        <v>-0.0007703712477542419</v>
       </c>
       <c r="G86">
-        <v>-0.05222451024538099</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.05497974710791114</v>
+      </c>
+      <c r="H86">
+        <v>-0.09413033048363478</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.04225783834519863</v>
+        <v>0.02641523758037371</v>
       </c>
       <c r="C87">
-        <v>-0.004515641250541835</v>
+        <v>0.005231314389376409</v>
       </c>
       <c r="D87">
-        <v>0.02132912459143731</v>
+        <v>0.04563948305406523</v>
       </c>
       <c r="E87">
-        <v>-0.007994947197380481</v>
+        <v>0.003443408440658508</v>
       </c>
       <c r="F87">
-        <v>-0.1145986059647457</v>
+        <v>0.005305186824718712</v>
       </c>
       <c r="G87">
-        <v>-0.03826122373055254</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.08116823022554465</v>
+      </c>
+      <c r="H87">
+        <v>-0.08010706949691603</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01276392672709342</v>
+        <v>0.04377268201701623</v>
       </c>
       <c r="C88">
-        <v>0.01544346358369385</v>
+        <v>-0.009359873019859643</v>
       </c>
       <c r="D88">
-        <v>-0.01489060693666794</v>
+        <v>0.018869131346409</v>
       </c>
       <c r="E88">
-        <v>-0.01742616905808187</v>
+        <v>0.01241558073010244</v>
       </c>
       <c r="F88">
-        <v>-0.004382039316824884</v>
+        <v>0.01919999027343191</v>
       </c>
       <c r="G88">
-        <v>-0.0589897820855826</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.001219432719912394</v>
+      </c>
+      <c r="H88">
+        <v>-0.01895353989712954</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1106363686813584</v>
+        <v>0.2590936913262563</v>
       </c>
       <c r="C89">
-        <v>0.1220471898487108</v>
+        <v>-0.02280982722611872</v>
       </c>
       <c r="D89">
-        <v>-0.1656595895942219</v>
+        <v>-0.3492144412094421</v>
       </c>
       <c r="E89">
-        <v>0.2608650757240907</v>
+        <v>-0.01874603239223647</v>
       </c>
       <c r="F89">
-        <v>-0.08379126581479765</v>
+        <v>-0.02771724196165</v>
       </c>
       <c r="G89">
-        <v>-0.01615964173827226</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.001787036754537554</v>
+      </c>
+      <c r="H89">
+        <v>-0.00922333338616118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09443434320820977</v>
+        <v>0.2102562624180284</v>
       </c>
       <c r="C90">
-        <v>0.1737527864914995</v>
+        <v>-0.0217261138192804</v>
       </c>
       <c r="D90">
-        <v>-0.1862689713780117</v>
+        <v>-0.3161381125384916</v>
       </c>
       <c r="E90">
-        <v>0.269102188598464</v>
+        <v>-0.01090285108661545</v>
       </c>
       <c r="F90">
-        <v>-0.03474135065423001</v>
+        <v>-0.05277098991004996</v>
       </c>
       <c r="G90">
-        <v>-0.05298581670889781</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.01219864817942558</v>
+      </c>
+      <c r="H90">
+        <v>0.0537592557928726</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.3033020771683769</v>
+        <v>0.2289020789612997</v>
       </c>
       <c r="C91">
-        <v>-0.128108916555607</v>
+        <v>0.09743085556814209</v>
       </c>
       <c r="D91">
-        <v>-0.09381860348832409</v>
+        <v>0.1485253691593279</v>
       </c>
       <c r="E91">
-        <v>-0.1174049570486092</v>
+        <v>-0.00985895552926065</v>
       </c>
       <c r="F91">
-        <v>0.2213956032440007</v>
+        <v>0.08454287494093143</v>
       </c>
       <c r="G91">
-        <v>0.01667306335069453</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1403585451762747</v>
+      </c>
+      <c r="H91">
+        <v>0.1686855827730969</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1789124629437196</v>
+        <v>0.2541011954084377</v>
       </c>
       <c r="C92">
-        <v>0.1124204479774775</v>
+        <v>0.04690376975104232</v>
       </c>
       <c r="D92">
-        <v>-0.3531688288147819</v>
+        <v>-0.2414347790855197</v>
       </c>
       <c r="E92">
-        <v>0.2339010363197684</v>
+        <v>-0.001290648458962275</v>
       </c>
       <c r="F92">
-        <v>0.1360764720542223</v>
+        <v>0.01351328474624274</v>
       </c>
       <c r="G92">
-        <v>-0.4503261668029756</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.02013492157871068</v>
+      </c>
+      <c r="H92">
+        <v>0.1199815837409229</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.09954631804953734</v>
+        <v>0.2351700032261737</v>
       </c>
       <c r="C93">
-        <v>0.1642119197652048</v>
+        <v>-0.0122109525758384</v>
       </c>
       <c r="D93">
-        <v>-0.2116529196628207</v>
+        <v>-0.3240663006889102</v>
       </c>
       <c r="E93">
-        <v>0.3715059153437755</v>
+        <v>-0.03249414460536885</v>
       </c>
       <c r="F93">
-        <v>0.02003502935317362</v>
+        <v>-0.0546341967712444</v>
       </c>
       <c r="G93">
-        <v>0.03674360377741077</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.008694317475165312</v>
+      </c>
+      <c r="H93">
+        <v>-0.01047603511649254</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2975463387277141</v>
+        <v>0.2809793210367724</v>
       </c>
       <c r="C94">
-        <v>-0.1578799349318173</v>
+        <v>0.09321233893965152</v>
       </c>
       <c r="D94">
-        <v>-0.1896689886233325</v>
+        <v>0.1427186030838766</v>
       </c>
       <c r="E94">
-        <v>-0.1372515731150927</v>
+        <v>-0.02944688551779228</v>
       </c>
       <c r="F94">
-        <v>0.1570615265378555</v>
+        <v>0.1844990225612878</v>
       </c>
       <c r="G94">
-        <v>0.04227009360116715</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2352008425542206</v>
+      </c>
+      <c r="H94">
+        <v>0.2855166213114386</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.04785318686699522</v>
+        <v>0.05543262420232348</v>
       </c>
       <c r="C95">
-        <v>-0.05436722161846227</v>
+        <v>0.03529220418322494</v>
       </c>
       <c r="D95">
-        <v>0.05047477905701383</v>
+        <v>0.08446428421525738</v>
       </c>
       <c r="E95">
-        <v>-0.06013552887127466</v>
+        <v>-0.08260856007528034</v>
       </c>
       <c r="F95">
-        <v>-0.06903948137840449</v>
+        <v>-0.006221961285452457</v>
       </c>
       <c r="G95">
-        <v>-0.2127328561749981</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.05179012782607024</v>
+      </c>
+      <c r="H95">
+        <v>-0.05325018407131782</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1634169258306896</v>
+        <v>0.1825301625761639</v>
       </c>
       <c r="C98">
-        <v>-0.05723763320258266</v>
+        <v>0.05655914584916692</v>
       </c>
       <c r="D98">
-        <v>0.03443328179899267</v>
+        <v>0.03442147504276635</v>
       </c>
       <c r="E98">
-        <v>0.1435145153366356</v>
+        <v>-0.05623842325405712</v>
       </c>
       <c r="F98">
-        <v>-0.1094302601182838</v>
+        <v>0.01165460823934476</v>
       </c>
       <c r="G98">
-        <v>0.3676837610961115</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.07918170739329053</v>
+      </c>
+      <c r="H98">
+        <v>-0.3433395871810003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.005163696023074984</v>
+        <v>0.01787564566671636</v>
       </c>
       <c r="C101">
-        <v>-0.01978974581263001</v>
+        <v>0.0005211391034904468</v>
       </c>
       <c r="D101">
-        <v>0.01543549057184546</v>
+        <v>0.01302160283584757</v>
       </c>
       <c r="E101">
-        <v>-0.0619104162376244</v>
+        <v>0.002494392088921921</v>
       </c>
       <c r="F101">
-        <v>-0.1853174274113307</v>
+        <v>0.01811293200116353</v>
       </c>
       <c r="G101">
-        <v>-0.07852005554472684</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1017463322583714</v>
+      </c>
+      <c r="H101">
+        <v>0.02127708745977403</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1150922533576266</v>
+        <v>0.1023430167037579</v>
       </c>
       <c r="C102">
-        <v>-0.04936119041544199</v>
+        <v>0.03397795985783642</v>
       </c>
       <c r="D102">
-        <v>-0.0369630599521934</v>
+        <v>0.08293287303973057</v>
       </c>
       <c r="E102">
-        <v>-0.07395391594944879</v>
+        <v>0.003246733519279045</v>
       </c>
       <c r="F102">
-        <v>0.08006060525930339</v>
+        <v>0.04718192083155337</v>
       </c>
       <c r="G102">
-        <v>0.001329221559581476</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.07144134142260646</v>
+      </c>
+      <c r="H102">
+        <v>0.06511311201699918</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04420322887621471</v>
+        <v>0.01546566866247335</v>
       </c>
       <c r="C103">
-        <v>-0.01195942188285729</v>
+        <v>0.006254235776241749</v>
       </c>
       <c r="D103">
-        <v>-0.01226195270568965</v>
+        <v>0.01545012178421429</v>
       </c>
       <c r="E103">
-        <v>-0.05144063019038947</v>
+        <v>0.008361238960222875</v>
       </c>
       <c r="F103">
-        <v>-0.01230199382907487</v>
+        <v>0.006496823867734136</v>
       </c>
       <c r="G103">
-        <v>-0.04079058208218268</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.001902990318066968</v>
+      </c>
+      <c r="H103">
+        <v>0.01265498039203375</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1871229240573739</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9560453796752949</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.1463403736507557</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02858676435801925</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1316131945927935</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.0124000048534159</v>
+      </c>
+      <c r="H104">
+        <v>0.04906035101474745</v>
       </c>
     </row>
   </sheetData>
